--- a/doc/05 开发计划表.xlsx
+++ b/doc/05 开发计划表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MakeFriends\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MakeFirends\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9DAB1-366A-411C-A78C-8D716CD9989D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC40BC-D1BB-49CC-9CF0-84C02092C716}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>功能序号</t>
   </si>
@@ -75,70 +75,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息的增删改查</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改登陆密码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>让用户来修改自己的个人资料</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以更改登陆密码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>高鹏</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>首页推送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>互动广场</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴趣匹配</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用户注册时的兴趣为其匹配相同兴趣的用户</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴趣导航</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页上会有许多分类用户根据自己喜好选择分类来认识更多其他用户</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布动态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>加好友，点赞评论</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以发布自己喜欢的内容更其他人观看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以通过其他用户的动态来加对方好友不过需对方同意还可点赞评论其他用户</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>姜凯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -147,34 +87,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>好友</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友圈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索添加删除好友</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以与好友聊天</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以看见好友动态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以搜索添加删除好友</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>刘磊</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -196,6 +108,110 @@
   </si>
   <si>
     <t>高兴奎</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐热点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐热门消息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看发布帖子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看和发布帖子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布文章</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看文章</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以发布用户想要发布的信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以查看自己感兴趣的信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习课程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看课程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买课程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以让用户购买自己想要的课程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看有哪些用户需要的课程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看活动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加活动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以查看有哪些活动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以通过页面参加活动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.30</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -423,6 +439,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,35 +478,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -820,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -839,21 +855,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -885,221 +901,255 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>38</v>
-      </c>
+      <c r="A13" s="23"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="10"/>
       <c r="G13" s="9"/>
       <c r="H13" s="3" t="s">

--- a/doc/05 开发计划表.xlsx
+++ b/doc/05 开发计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MakeFirends\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC40BC-D1BB-49CC-9CF0-84C02092C716}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B732A3-629B-45F3-A978-F36E7EE9F350}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>功能序号</t>
   </si>
@@ -83,14 +83,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金思锦</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘磊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>注册</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -115,10 +107,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>推荐热点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐热门消息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -131,10 +119,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>查看发布帖子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>可以查看和发布帖子</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -143,75 +127,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>论坛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布文章</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看文章</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以发布用户想要发布的信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以查看自己感兴趣的信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.5.3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习课程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看课程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买课程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以让用户购买自己想要的课程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以查看有哪些用户需要的课程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.5.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看活动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加活动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以查看有哪些活动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以通过页面参加活动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.4.30</t>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>查询用户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览网站</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -836,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -905,25 +828,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I3" s="6"/>
     </row>
@@ -931,22 +854,22 @@
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I4" s="6"/>
     </row>
@@ -954,22 +877,22 @@
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -977,22 +900,22 @@
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -1000,24 +923,12 @@
       <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1026,21 +937,11 @@
     <row r="8" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1048,24 +949,12 @@
     </row>
     <row r="9" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1074,21 +963,11 @@
     <row r="10" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1098,24 +977,12 @@
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1124,21 +991,11 @@
     <row r="12" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>

--- a/doc/05 开发计划表.xlsx
+++ b/doc/05 开发计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MakeFirends\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B732A3-629B-45F3-A978-F36E7EE9F350}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3078D7-BDAF-426F-BA79-20B72CEF2CE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3564" yWindow="1524" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1次迭代" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>滞后原因</t>
-  </si>
-  <si>
-    <t>xxxx项目组第1次迭代开发计划表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
@@ -137,12 +133,16 @@
     <t>浏览网站</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>焦点学苑项目组第1次迭代开发计划表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -199,6 +199,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -313,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -759,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -778,18 +788,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>9</v>
+      <c r="A1" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>12</v>
       </c>
       <c r="H1" s="26"/>
       <c r="I1" s="27"/>
@@ -828,25 +838,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="6"/>
     </row>
@@ -854,22 +864,22 @@
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="6"/>
     </row>
@@ -877,22 +887,22 @@
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -900,22 +910,22 @@
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -930,7 +940,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -943,7 +953,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -956,7 +966,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -969,7 +979,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -984,7 +994,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -997,7 +1007,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -1010,7 +1020,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="9"/>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="6"/>
     </row>

--- a/doc/05 开发计划表.xlsx
+++ b/doc/05 开发计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MakeFirends\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3078D7-BDAF-426F-BA79-20B72CEF2CE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F355BA-0DC5-4CA8-BCF3-401747CBAFCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="1524" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1次迭代" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>功能序号</t>
   </si>
@@ -99,11 +99,54 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>2019.4.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看和发布帖子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>查询用户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览网站</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点学苑项目组第1次迭代开发计划表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>社区</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>推荐热门消息</t>
+    <t>查看帖子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜凯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -111,30 +154,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2019.5.1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以查看和发布帖子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.4.25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>查询用户</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览网站</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦点学苑项目组第1次迭代开发计划表</t>
+    <t>2019.4.23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">活动 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看活动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金思锦</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以让用户找到一起玩的小伙伴</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,9 +373,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,6 +421,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,6 +433,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,8 +466,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -769,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -788,253 +834,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="15" t="s">
+      <c r="A1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>19</v>
+      <c r="B3" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/doc/05 开发计划表.xlsx
+++ b/doc/05 开发计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MakeFirends\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F355BA-0DC5-4CA8-BCF3-401747CBAFCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B23BBA-ECC7-41BE-8F65-14C36CD2A4E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>功能序号</t>
   </si>
@@ -175,6 +175,26 @@
   </si>
   <si>
     <t>可以让用户找到一起玩的小伙伴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以在个人信息页面修改自己之前填写的信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘磊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +444,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,6 +477,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,10 +495,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -816,7 +842,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -834,21 +860,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -880,16 +906,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -907,8 +933,8 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
@@ -930,8 +956,8 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
@@ -953,8 +979,8 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
@@ -976,10 +1002,10 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1003,8 +1029,8 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -1016,8 +1042,8 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -1041,8 +1067,8 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
@@ -1054,23 +1080,35 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="15"/>
@@ -1082,8 +1120,8 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="15"/>
